--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -46,46 +46,136 @@
     <t>1</t>
   </si>
   <si>
-    <t>test test</t>
-  </si>
-  <si>
-    <t>asdfsdfsdf</t>
+    <t>temur</t>
+  </si>
+  <si>
+    <t>Narx chiqarishni tasdiqlash</t>
+  </si>
+  <si>
+    <t>tasdiqlandi</t>
+  </si>
+  <si>
+    <t>#shablon
+Tovar: DYUBEL GVOZD DMAX
+Programma va uchet fayllariga kiritgan: Bek
+Tekshirdi: Behzod
+@Nodirbek_Kuddusov yoki Rasul aka narxlarni eʼlon qilishni tasdiqlab bering iltimos. (Xorijiy bo'lsa Nodirbek aka, mahalliy bo'lsa Rasul aka)
+#ch_narx (sana)
+#mahalliy (#xitoy)"</t>
+  </si>
+  <si>
+    <t>25.12.2021 00:05</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Mahalliy xarid buyurtmasi</t>
+  </si>
+  <si>
+    <t>Behzod Usmonov</t>
+  </si>
+  <si>
+    <t>rad etildi</t>
+  </si>
+  <si>
+    <t>◀️ ortga</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>24.12.2021 23:32</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>[In reply to Management]
+"#XATO
+Sababi: Tovar yo'q bo'lganligi uchun puli qaytarib berish esdan chiqqan
+Kim qilgan: Abduqodir aka
+O'zgartirish kerak: kassauchetdan klientni haqdor qilib qo'yish kerak 74.000 so'mga"</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>24.12.2021 22:38</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>kutilmoqda</t>
   </si>
   <si>
-    <t>hfghfgh</t>
-  </si>
-  <si>
-    <t>20.12.2021 19:20</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>jikoljkl</t>
-  </si>
-  <si>
-    <t>20.12.2021 19:18</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>fghfghfgh</t>
-  </si>
-  <si>
-    <t>rad etildi</t>
-  </si>
-  <si>
-    <t>gdfg</t>
-  </si>
-  <si>
-    <t>dfgdfg</t>
-  </si>
-  <si>
-    <t>18.12.2021 03:50</t>
+    <t>"#XATO
+Sababi: Tovar yo'q bo'lganligi uchun puli qaytarib berish esdan chiqqan
+Kim qilgan: Abduqodir aka
+O'zgartirish kerak: kassauchetdan klientni haqdor qilib qo'yish kerak 74.000 so'mga"</t>
+  </si>
+  <si>
+    <t>24.12.2021 22:14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Test test</t>
+  </si>
+  <si>
+    <t>test
+anker
+homut</t>
+  </si>
+  <si>
+    <t>24.12.2021 19:38</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>anker</t>
+  </si>
+  <si>
+    <t>24.12.2021 19:17</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Komiljonov Shukurullox</t>
+  </si>
+  <si>
+    <t>ert</t>
+  </si>
+  <si>
+    <t>bla</t>
+  </si>
+  <si>
+    <t>23.12.2021 17:02</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>23.12.2021 16:55</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>sdfsdsdf</t>
+  </si>
+  <si>
+    <t>23.12.2021 16:48</t>
   </si>
 </sst>
 </file>
@@ -430,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,6 +565,9 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
@@ -493,42 +586,186 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -536,6 +773,12 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -46,46 +46,133 @@
     <t>1</t>
   </si>
   <si>
-    <t>test test</t>
-  </si>
-  <si>
-    <t>asdfsdfsdf</t>
+    <t>temur</t>
+  </si>
+  <si>
+    <t>Narx chiqarishni tasdiqlash</t>
+  </si>
+  <si>
+    <t>tasdiqlandi</t>
+  </si>
+  <si>
+    <t>#shablon
+Tovar: DYUBEL GVOZD DMAX
+Programma va uchet fayllariga kiritgan: Bek
+Tekshirdi: Behzod
+@Nodirbek_Kuddusov yoki Rasul aka narxlarni eʼlon qilishni tasdiqlab bering iltimos. (Xorijiy bo'lsa Nodirbek aka, mahalliy bo'lsa Rasul aka)
+#ch_narx (sana)
+#mahalliy (#xitoy)"</t>
+  </si>
+  <si>
+    <t>25.12.2021 00:05</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Mahalliy xarid buyurtmasi</t>
   </si>
   <si>
     <t>kutilmoqda</t>
   </si>
   <si>
-    <t>hfghfgh</t>
-  </si>
-  <si>
-    <t>20.12.2021 19:20</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>jikoljkl</t>
-  </si>
-  <si>
-    <t>20.12.2021 19:18</t>
+    <t>◀️ ortga</t>
+  </si>
+  <si>
+    <t>24.12.2021 23:32</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>fghfghfgh</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Behzod Usmonov</t>
   </si>
   <si>
     <t>rad etildi</t>
   </si>
   <si>
-    <t>gdfg</t>
-  </si>
-  <si>
-    <t>dfgdfg</t>
-  </si>
-  <si>
-    <t>18.12.2021 03:50</t>
+    <t>[In reply to Management]
+"#XATO
+Sababi: Tovar yo'q bo'lganligi uchun puli qaytarib berish esdan chiqqan
+Kim qilgan: Abduqodir aka
+O'zgartirish kerak: kassauchetdan klientni haqdor qilib qo'yish kerak 74.000 so'mga"</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>24.12.2021 22:38</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>"#XATO
+Sababi: Tovar yo'q bo'lganligi uchun puli qaytarib berish esdan chiqqan
+Kim qilgan: Abduqodir aka
+O'zgartirish kerak: kassauchetdan klientni haqdor qilib qo'yish kerak 74.000 so'mga"</t>
+  </si>
+  <si>
+    <t>24.12.2021 22:14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Test test</t>
+  </si>
+  <si>
+    <t>test
+anker
+homut</t>
+  </si>
+  <si>
+    <t>24.12.2021 19:38</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>anker</t>
+  </si>
+  <si>
+    <t>24.12.2021 19:17</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Komiljonov Shukurullox</t>
+  </si>
+  <si>
+    <t>ert</t>
+  </si>
+  <si>
+    <t>bla</t>
+  </si>
+  <si>
+    <t>23.12.2021 17:02</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>23.12.2021 16:55</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>sdfsdsdf</t>
+  </si>
+  <si>
+    <t>23.12.2021 16:48</t>
   </si>
 </sst>
 </file>
@@ -430,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,6 +562,9 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
@@ -493,42 +583,180 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -536,6 +764,12 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
